--- a/wave2_public_r.xlsx
+++ b/wave2_public_r.xlsx
@@ -8,19 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kuleuven-my.sharepoint.com/personal/benjamin_imsa_student_kuleuven_be/Documents/SIGMA internship/Codebook/Interactive-Codebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="445" documentId="11_3311DCCF8F79A8D366075C52F37BD272AACB2179" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5F416F8-F860-2445-B31D-051A600C9CFD}"/>
+  <xr:revisionPtr revIDLastSave="485" documentId="11_3311DCCF8F79A8D366075C52F37BD272AACB2179" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DC441B2-0F29-4B48-B785-2FFA45D0C514}"/>
   <bookViews>
     <workbookView xWindow="7920" yWindow="500" windowWidth="19380" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6815" uniqueCount="2302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6849" uniqueCount="2336">
   <si>
     <t>Variable name</t>
   </si>
@@ -6926,6 +6940,108 @@
   </si>
   <si>
     <t>If something bad has happened: I feel that basically the cause lies with others</t>
+  </si>
+  <si>
+    <t>I don't like telling my father how I feel down inside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm worried that my father does not really love me. </t>
+  </si>
+  <si>
+    <t>I'm worried my father does not like me as much as I like him.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's not easy for me to tell my father a lot about myself. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I prefer not to get too close to my father. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When I show my father that I love him, I'm afraid he won't love me the same way. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I usually talk to my father about my problems and my worries. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When I 'm feeling down, it helps to talk to my father. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I tell my father nearly everything. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I sometimes think my father doesn't like me anymore for no reason. </t>
+  </si>
+  <si>
+    <t>I don't like telling my mother how I feel down inside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm worried that my mother does not really love me. </t>
+  </si>
+  <si>
+    <t>I'm worried my mother does not like me as much as I like her.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's not easy for me to tell my mother a lot about myself. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I prefer not to get too close to my mother. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When I show my mother that I love her, I'm afraid she won't love me the same way. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I usually talk to my mother about my problems and my worries. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When I 'm feeling down, it helps to talk to my mother. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I tell my mother nearly everything. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I sometimes think my mother doesn't like me anymore for no reason. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm afraid that I want to feel too close to my mother and she does not like it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm afraid that I want to feel too close to my father and he does not like it. </t>
+  </si>
+  <si>
+    <t>There is a special person who is around when I am in need.</t>
+  </si>
+  <si>
+    <t>There is a special person with whom I can share both my joy and my worries/sorrow.</t>
+  </si>
+  <si>
+    <t>My family really tries to help me.</t>
+  </si>
+  <si>
+    <t>I get the emotional help and support I need from my family.</t>
+  </si>
+  <si>
+    <t>I have a special person who is a real source of comfort for me.</t>
+  </si>
+  <si>
+    <t>My friends really try to help me.</t>
+  </si>
+  <si>
+    <t>I can count on my friends when things go wrong.</t>
+  </si>
+  <si>
+    <t>I can talk about my problems with my family.</t>
+  </si>
+  <si>
+    <t>I have friends with whom I can share my joys and sorrows.</t>
+  </si>
+  <si>
+    <t>There is a special person in my life who cares about my feelings.</t>
+  </si>
+  <si>
+    <t>My family is willing to help me make decisions.</t>
+  </si>
+  <si>
+    <t>I can talk about my problems with my friends.</t>
   </si>
 </sst>
 </file>
@@ -7339,8 +7455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N919"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A557" workbookViewId="0">
-      <selection activeCell="F570" sqref="F570"/>
+    <sheetView tabSelected="1" topLeftCell="A389" workbookViewId="0">
+      <selection activeCell="F416" sqref="F416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16305,6 +16421,9 @@
       <c r="H378" t="s">
         <v>829</v>
       </c>
+      <c r="I378" t="s">
+        <v>2302</v>
+      </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
@@ -16345,6 +16464,9 @@
       <c r="H380" t="s">
         <v>833</v>
       </c>
+      <c r="I380" t="s">
+        <v>2303</v>
+      </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
@@ -16365,6 +16487,9 @@
       <c r="H381" t="s">
         <v>835</v>
       </c>
+      <c r="I381" t="s">
+        <v>2304</v>
+      </c>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
@@ -16385,6 +16510,9 @@
       <c r="H382" t="s">
         <v>837</v>
       </c>
+      <c r="I382" t="s">
+        <v>2305</v>
+      </c>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
@@ -16405,6 +16533,9 @@
       <c r="H383" t="s">
         <v>839</v>
       </c>
+      <c r="I383" t="s">
+        <v>2306</v>
+      </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
@@ -16425,8 +16556,11 @@
       <c r="H384" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I384" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>842</v>
       </c>
@@ -16445,8 +16579,11 @@
       <c r="H385" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I385" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>844</v>
       </c>
@@ -16465,8 +16602,11 @@
       <c r="H386" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I386" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>846</v>
       </c>
@@ -16485,8 +16625,11 @@
       <c r="H387" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I387" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>848</v>
       </c>
@@ -16505,8 +16648,11 @@
       <c r="H388" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I388" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>850</v>
       </c>
@@ -16525,8 +16671,11 @@
       <c r="H389" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I389" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>852</v>
       </c>
@@ -16543,7 +16692,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>854</v>
       </c>
@@ -16563,7 +16712,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>855</v>
       </c>
@@ -16582,8 +16731,11 @@
       <c r="H392" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I392" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>857</v>
       </c>
@@ -16603,7 +16755,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>859</v>
       </c>
@@ -16622,8 +16774,11 @@
       <c r="H394" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I394" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>861</v>
       </c>
@@ -16642,8 +16797,11 @@
       <c r="H395" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I395" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>863</v>
       </c>
@@ -16662,8 +16820,11 @@
       <c r="H396" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I396" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>865</v>
       </c>
@@ -16682,8 +16843,11 @@
       <c r="H397" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I397" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>867</v>
       </c>
@@ -16702,8 +16866,11 @@
       <c r="H398" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I398" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>869</v>
       </c>
@@ -16722,8 +16889,11 @@
       <c r="H399" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I399" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>871</v>
       </c>
@@ -16741,6 +16911,9 @@
       </c>
       <c r="H400" t="s">
         <v>872</v>
+      </c>
+      <c r="I400" t="s">
+        <v>2319</v>
       </c>
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.2">
@@ -16762,6 +16935,9 @@
       <c r="H401" t="s">
         <v>874</v>
       </c>
+      <c r="I401" t="s">
+        <v>2320</v>
+      </c>
     </row>
     <row r="402" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
@@ -16782,6 +16958,9 @@
       <c r="H402" t="s">
         <v>876</v>
       </c>
+      <c r="I402" t="s">
+        <v>2321</v>
+      </c>
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
@@ -16802,6 +16981,9 @@
       <c r="H403" t="s">
         <v>878</v>
       </c>
+      <c r="I403" t="s">
+        <v>2322</v>
+      </c>
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
@@ -16825,6 +17007,9 @@
       <c r="H404" t="s">
         <v>881</v>
       </c>
+      <c r="I404" t="s">
+        <v>2324</v>
+      </c>
     </row>
     <row r="405" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
@@ -16845,6 +17030,9 @@
       <c r="H405" t="s">
         <v>883</v>
       </c>
+      <c r="I405" t="s">
+        <v>2325</v>
+      </c>
     </row>
     <row r="406" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
@@ -16865,6 +17053,9 @@
       <c r="H406" t="s">
         <v>885</v>
       </c>
+      <c r="I406" t="s">
+        <v>2326</v>
+      </c>
     </row>
     <row r="407" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
@@ -16885,6 +17076,9 @@
       <c r="H407" t="s">
         <v>887</v>
       </c>
+      <c r="I407" t="s">
+        <v>2327</v>
+      </c>
     </row>
     <row r="408" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
@@ -16905,6 +17099,9 @@
       <c r="H408" t="s">
         <v>889</v>
       </c>
+      <c r="I408" t="s">
+        <v>2328</v>
+      </c>
     </row>
     <row r="409" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
@@ -16925,6 +17122,9 @@
       <c r="H409" t="s">
         <v>891</v>
       </c>
+      <c r="I409" t="s">
+        <v>2329</v>
+      </c>
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
@@ -16945,6 +17145,9 @@
       <c r="H410" t="s">
         <v>893</v>
       </c>
+      <c r="I410" t="s">
+        <v>2330</v>
+      </c>
     </row>
     <row r="411" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
@@ -16965,6 +17168,9 @@
       <c r="H411" t="s">
         <v>895</v>
       </c>
+      <c r="I411" t="s">
+        <v>2331</v>
+      </c>
     </row>
     <row r="412" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
@@ -16985,6 +17191,9 @@
       <c r="H412" t="s">
         <v>897</v>
       </c>
+      <c r="I412" t="s">
+        <v>2332</v>
+      </c>
     </row>
     <row r="413" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
@@ -17005,6 +17214,9 @@
       <c r="H413" t="s">
         <v>899</v>
       </c>
+      <c r="I413" t="s">
+        <v>2333</v>
+      </c>
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
@@ -17025,6 +17237,9 @@
       <c r="H414" t="s">
         <v>901</v>
       </c>
+      <c r="I414" t="s">
+        <v>2334</v>
+      </c>
     </row>
     <row r="415" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
@@ -17044,6 +17259,9 @@
       </c>
       <c r="H415" t="s">
         <v>903</v>
+      </c>
+      <c r="I415" t="s">
+        <v>2335</v>
       </c>
     </row>
     <row r="416" spans="1:13" x14ac:dyDescent="0.2">
